--- a/report/excelReport/cloudAPIdental.xlsx
+++ b/report/excelReport/cloudAPIdental.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12682" windowWidth="23452" xWindow="-109" yWindow="-109"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$M$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -74,6 +74,11 @@
       <b val="1"/>
       <color rgb="00808000"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,71 +119,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="23">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -544,27 +561,27 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col width="10.33203125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="30.109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="42.44140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.21875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="85.21875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="26.44140625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="58.33203125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12.88671875" customWidth="1" style="2" min="9" max="9"/>
-    <col width="12.109375" customWidth="1" style="2" min="10" max="10"/>
-    <col width="24.109375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="10.21875" customWidth="1" style="1" min="13" max="13"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.33203125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.109375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="30.109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="42.44140625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="8.21875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="85.21875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="26.44140625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="58.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="12.88671875"/>
+    <col customWidth="1" max="10" min="10" style="2" width="12.109375"/>
+    <col customWidth="1" max="11" min="11" style="1" width="24.109375"/>
+    <col customWidth="1" max="13" min="13" style="1" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.05" customHeight="1" s="1">
+    <row customHeight="1" ht="24.05" r="1" s="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>module</t>
@@ -641,7 +658,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="2" s="1">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -708,7 +725,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="3" s="1">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -754,10 +771,23 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="5" t="n"/>
+      <c r="L3" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M3" s="18" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":1,"total":11},"result":[{"CreateBy":"tong","CreateOn":"2020-12-01T09:46:11Z","FactoryAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2,084a5d84-2500-5826-bea6-ef3acd599976","ID":"d37e9a0a-a540-5e21-84bf-d98619185196","Lab":"三维技工所","SN":"tttt--2222","UserID":"084a5d84-2500-5826-bea6-ef3acd599976"},{"CreateBy":"张慧2","CreateOn":"2020-11-04T06:48:58Z","FactoryAdmins":"808fd750-282d-4fe2-9a2a-116aa9df0401,808fd750-282d-4fe2-9a2a-116aa9df0401","ID":"5c1c81fe-2ddf-55a7-8953-2c1179bf7bf6","Lab":"三维技工所","SN":"aos-1003","UserID":"808fd750-282d-4fe2-9a2a-116aa9df0401"},{"CreateBy":"胡俊personal","CreateOn":"2020-07-21T07:12:46Z","FactoryAdmins":"","ID":"78129a11-1a69-509a-b5aa-7d8133eb1bc6","Lab":"","SN":"AI005C26","UserID":"a270f689-049a-5649-bd37-73f524c696d5"},{"CreateBy":"潘鑫鑫","CreateOn":"2020-07-09T02:11:38Z","FactoryAdmins":"5d77fc89-cf3e-505e-8972-bc1926d7204c","ID":"1379992e-e526-5d10-b0eb-82dd90727354","Lab":"ljlj001","SN":"h78kkkk","UserID":"5d77fc89-cf3e-505e-8972-bc1926d7204c"},{"CreateBy":"孙博","CreateOn":"2019-07-24T09:33:23Z","FactoryAdmins":"4c53525f-d297-439d-84ec-9585f2c9700e,4c53525f-d297-439d-84ec-9585f2c9700e","ID":"d2265c9a-4634-5cc1-ac2b-312feabbae83","Lab":"lj技工所","SN":"AOS-AH007J21","UserID":"4c53525f-d297-439d-84ec-9585f2c9700e"},{"CreateBy":"孙博","CreateOn":"2019-07-22T02:35:55Z","FactoryAdmins":"4c53525f-d297-439d-84ec-9585f2c9700e,4c53525f-d297-439d-84ec-9585f2c9700e","ID":"996ea23a-77fd-5e3d-bea1-8cacdb14be75","Lab":"","SN":"aos-1001","UserID":"4c53525f-d297-439d-84ec-9585f2c9700e"},{"CreateBy":"孙博","CreateOn":"2019-06-04T07:52:08Z","FactoryAdmins":"4c53525f-d297-439d-84ec-9585f2c9700e,4c53525f-d297-439d-84ec-9585f2c9700e","ID":"3ecda52e-8ab3-55ed-8e21-72fb501f7d5f","Lab":"","SN":"aos-aj005e05","UserID":"4c53525f-d297-439d-84ec-9585f2c9700e"},{"CreateBy":"vghv","CreateOn":"2019-02-19T15:52:46Z","FactoryAdmins":"a4515b9a-eb41-49ed-9be2-bb97c0780ded","ID":"ad0b1d17-e043-5382-83f0-6d51f45cab70","Lab":"云打印技工所","SN":"autoscan1b-2016178k14","UserID":"a4515b9a-eb41-49ed-9be2-bb97c0780ded"},{"CreateBy":"vghv","CreateOn":"2019-02-19T15:51:06Z","FactoryAdmins":"a4515b9a-eb41-49ed-9be2-bb97c0780ded","ID":"9d4d0681-d8e3-53e0-8f99-d417296da8b5","Lab":"","SN":"autoscan1a-9016005i09","UserID":"a4515b9a-eb41-49ed-9be2-bb97c0780ded"},{"CreateBy":"vghv","CreateOn":"2019-02-19T15:47:29Z","FactoryAdmins":"a4515b9a-eb41-49ed-9be2-bb97c0780ded","ID":"4035c2cc-b10e-503f-b71e-524efc259fd5","Lab":"云打印技工所","SN":"autoscan1a-9016004i09","UserID":"a4515b9a-eb41-49ed-9be2-bb97c0780ded"},{"CreateBy":"王乾隆","CreateOn":"2019-02-19T13:24:08Z","FactoryAdmins":"842b8b11-044c-4f49-bf4b-8cd5cbf0533b,842b8b11-044c-4f49-bf4b-8cd5cbf0533b","ID":"d2505ada-9c98-56ae-9c6a-3caff7a22ad9","Lab":"云打印技工所","SN":"autoscan1a-9016003i09","UserID":"842b8b11-044c-4f49-bf4b-8cd5cbf0533b"}],"status":"success"}{"result":"authErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
-    <row r="4" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="4" s="1">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -803,8 +833,21 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
+      <c r="L4" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M4" s="18" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":4,"total":77},"result":[{"Addr":"","ChangeBy":"{\"NickName\":\"chendemiao\",\"UserID\":\"97aae085-faae-5b64-9dae-85a0e7f92231\",\"Email\":\"\",\"Phone\":\"18167102299\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-11-19T10:00:25Z","Comments":"%!M(string=Contact: chendemiao\u003cbr /\u003e)obile: 86-18167102299\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"chendemiao\",\"UserID\":\"97aae085-faae-5b64-9dae-85a0e7f92231\",\"Email\":\"\",\"Phone\":\"18167102299\",\"PhoneArea\":\"86\"}","CreateOn":"2020-11-19T10:00:25Z","Domain":"","FactoryType":"lab","Id":"0b8fb45a-5873-59e6-9e6b-60ed6d08c2cb","IsDeleted":"","Members":{"String":"[{\"UserID\":\"97aae085-faae-5b64-9dae-85a0e7f92231\",\"IsAdmin\":\"y\",\"NickName\":\"chendemiao\",\"Email\":\"\",\"Phone\":\"18167102299\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"chen lab","ParentID":"","Status":"enable"},{"Addr":"tt123!@#","ChangeBy":"{\"NickName\":\"TT\",\"UserID\":\"b2774d22-f323-5ea3-8784-01dfacb1d3c2\",\"Email\":\"\",\"Phone\":\"15957129104\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-11-27T05:37:21Z","Comments":"%!M(string=Contact: TT\u003cbr /\u003e)obile: 86-15957129104\u003cbr /\u003e","Contact":"tt123!@#","ContactWay":"tt123!@#","CreateBy":"{\"NickName\":\"TT\",\"UserID\":\"b2774d22-f323-5ea3-8784-01dfacb1d3c2\",\"Email\":\"\",\"Phone\":\"15957129104\",\"PhoneArea\":\"86\"}","CreateOn":"2020-11-04T02:25:10Z","Domain":"","FactoryType":"lab","Id":"0a20504d-34db-5402-a424-d3d79545e63a","IsDeleted":"","Members":{"String":"[{\"UserID\":\"00d94fdf-d95f-5659-a4b0-75e5d80719b2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000000\",\"Email\":\"\",\"Phone\":\"13300000000\",\"PhoneArea\":\"86\"},{\"UserID\":\"00e1d41b-a060-5ee3-9b8a-2306d391fa3e\",\"IsAdmin\":\"n\",\"NickName\":\"13300000073\",\"Email\":\"\",\"Phone\":\"13300000073\",\"PhoneArea\":\"86\"},{\"UserID\":\"03d2c445-baa1-5cde-b23b-7bb17bc4f605\",\"IsAdmin\":\"n\",\"NickName\":\"13300000019\",\"Email\":\"\",\"Phone\":\"13300000019\",\"PhoneArea\":\"86\"},{\"UserID\":\"05159b13-0cb5-5241-b802-66e4e0aa86b5\",\"IsAdmin\":\"n\",\"NickName\":\"13300000014\",\"Email\":\"\",\"Phone\":\"13300000014\",\"PhoneArea\":\"86\"},{\"UserID\":\"084a5d84-2500-5826-bea6-ef3acd599976\",\"IsAdmin\":\"y\",\"NickName\":\"tong\",\"Email\":\"tongjingwei@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"},{\"UserID\":\"0ad870d0-6c7b-5eca-8982-e2cdf4f192db\",\"IsAdmin\":\"n\",\"NickName\":\"13300000057\",\"Email\":\"\",\"Phone\":\"13300000057\",\"PhoneArea\":\"86\"},{\"UserID\":\"0e591456-8a3f-5c7e-8c64-5398bba23f46\",\"IsAdmin\":\"n\",\"NickName\":\"13300000024\",\"Email\":\"\",\"Phone\":\"13300000024\",\"PhoneArea\":\"86\"},{\"UserID\":\"11cb0e56-eee7-5c2b-9cf5-efd8bce0665d\",\"IsAdmin\":\"n\",\"NickName\":\"13300000093\",\"Email\":\"\",\"Phone\":\"13300000093\",\"PhoneArea\":\"86\"},{\"UserID\":\"12dc011b-d353-5104-a9fe-e540baf6318f\",\"IsAdmin\":\"y\",\"NickName\":\"13300000099\",\"Email\":\"\",\"Phone\":\"13300000099\",\"PhoneArea\":\"86\"},{\"UserID\":\"14f130c3-5a7d-563b-8312-9f0b06040c04\",\"IsAdmin\":\"n\",\"NickName\":\"13300000017\",\"Email\":\"\",\"Phone\":\"13300000017\",\"PhoneArea\":\"86\"},{\"UserID\":\"15c6f822-13eb-5aa2-aa7b-f50c03afed30\",\"IsAdmin\":\"n\",\"NickName\":\"13300000053\",\"Email\":\"\",\"Phone\":\"13300000053\",\"PhoneArea\":\"86\"},{\"UserID\":\"166ffe7d-6d75-51b8-aaf3-650ce4923227\",\"IsAdmin\":\"n\",\"NickName\":\"13300000011\",\"Email\":\"\",\"Phone\":\"13300000011\",\"PhoneArea\":\"86\"},{\"UserID\":\"16acf4c1-d9e8-5e48-9c18-ea0982a95611\",\"IsAdmin\":\"n\",\"NickName\":\"13300000029\",\"Email\":\"\",\"Phone\":\"13300000029\",\"PhoneArea\":\"86\"},{\"UserID\":\"17810fdc-9b27-575f-90b9-5e6e1670f9fc\",\"IsAdmin\":\"n\",\"NickName\":\"13300000026\",\"Email\":\"\",\"Phone\":\"13300000026\",\"PhoneArea\":\"86\"},{\"UserID\":\"17a839f0-94d7-531c-a6e4-b8c0c52e3fbd\",\"IsAdmin\":\"n\",\"NickName\":\"13300000001\",\"Email\":\"\",\"Phone\":\"13300000001\",\"PhoneArea\":\"86\"},{\"UserID\":\"17c574c1-8e72-5de5-a13b-ddd8b1fc7815\",\"IsAdmin\":\"n\",\"NickName\":\"13300000050\",\"Email\":\"\",\"Phone\":\"13300000050\",\"PhoneArea\":\"86\"},{\"UserID\":\"186e7c6c-6851-5949-a426-0155abed870b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000002\",\"Email\":\"\",\"Phone\":\"13300000002\",\"PhoneArea\":\"86\"},{\"UserID\":\"1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0\",\"IsAdmin\":\"n\",\"NickName\":\"13300000021\",\"Email\":\"\",\"Phone\":\"13300000021\",\"PhoneArea\":\"86\"},{\"UserID\":\"1ba11710-a57b-56e1-8dcf-b06db2e3d503\",\"IsAdmin\":\"n\",\"NickName\":\"13300000008\",\"Email\":\"\",\"Phone\":\"13300000008\",\"PhoneArea\":\"86\"},{\"UserID\":\"1e39d21b-008c-5904-9392-a2b063c8fc4e\",\"IsAdmin\":\"n\",\"NickName\":\"13300000065\",\"Email\":\"\",\"Phone\":\"13300000065\",\"PhoneArea\":\"86\"},{\"UserID\":\"2055aecf-bf43-5b89-ba85-5347b91eb694\",\"IsAdmin\":\"n\",\"NickName\":\"13300000012\",\"Email\":\"\",\"Phone\":\"13300000012\",\"PhoneArea\":\"86\"},{\"UserID\":\"22aa443f-0b91-5ab3-9af4-1b74a2699d92\",\"IsAdmin\":\"n\",\"NickName\":\"13300000022\",\"Email\":\"\",\"Phone\":\"13300000022\",\"PhoneArea\":\"86\"},{\"UserID\":\"23825ffb-db0f-56d1-b39e-fdbc13747a99\",\"IsAdmin\":\"n\",\"NickName\":\"13300000016\",\"Email\":\"\",\"Phone\":\"13300000016\",\"PhoneArea\":\"86\"},{\"UserID\":\"292eed56-a2c6-55f1-880d-4f5fb5db5aad\",\"IsAdmin\":\"n\",\"NickName\":\"13300000090\",\"Email\":\"\",\"Phone\":\"13300000090\",\"PhoneArea\":\"86\"},{\"UserID\":\"2ad9f533-9d1a-5473-aed5-6e0848809df5\",\"IsAdmin\":\"n\",\"NickName\":\"13300000096\",\"Email\":\"\",\"Phone\":\"13300000096\",\"PhoneArea\":\"86\"},{\"UserID\":\"2b4b1b83-d898-5539-8f67-d5fcf1533e4f\",\"IsAdmin\":\"n\",\"NickName\":\"13300000038\",\"Email\":\"\",\"Phone\":\"13300000038\",\"PhoneArea\":\"86\"},{\"UserID\":\"2e157bd1-8ecf-50f8-8300-311929bc06e0\",\"IsAdmin\":\"n\",\"NickName\":\"13300000071\",\"Email\":\"\",\"Phone\":\"13300000071\",\"PhoneArea\":\"86\"},{\"UserID\":\"3080d104-665a-5918-b797-d2d319f4c899\",\"IsAdmin\":\"n\",\"NickName\":\"13300000049\",\"Email\":\"\",\"Phone\":\"13300000049\",\"PhoneArea\":\"86\"},{\"UserID\":\"3620e132-0281-50ed-a8a2-0cb8b50b54f1\",\"IsAdmin\":\"n\",\"NickName\":\"13300000092\",\"Email\":\"\",\"Phone\":\"13300000092\",\"PhoneArea\":\"86\"},{\"UserID\":\"365bfc85-70d0-57f3-8dba-b7e51e85aecc\",\"IsAdmin\":\"n\",\"NickName\":\"13300000061\",\"Email\":\"\",\"Phone\":\"13300000061\",\"PhoneArea\":\"86\"},{\"UserID\":\"38917cdb-89d4-5111-859c-350a9cf55f50\",\"IsAdmin\":\"n\",\"NickName\":\"13300000074\",\"Email\":\"\",\"Phone\":\"13300000074\",\"PhoneArea\":\"86\"},{\"UserID\":\"3e9000cf-aa0c-5861-98d1-f28855164fe2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000100\",\"Email\":\"\",\"Phone\":\"13300000100\",\"PhoneArea\":\"86\"},{\"UserID\":\"401888fc-adda-5f09-ad82-d0fd9fd48765\",\"IsAdmin\":\"n\",\"NickName\":\"13300000035\",\"Email\":\"\",\"Phone\":\"13300000035\",\"PhoneArea\":\"86\"},{\"UserID\":\"41347da9-cb11-5ea8-9e7b-87a8b9902aa6\",\"IsAdmin\":\"n\",\"NickName\":\"13300000070\",\"Email\":\"\",\"Phone\":\"13300000070\",\"PhoneArea\":\"86\"},{\"UserID\":\"467943a4-8fa9-53e9-af02-0ba1df62ecae\",\"IsAdmin\":\"n\",\"NickName\":\"13300000047\",\"Email\":\"\",\"Phone\":\"13300000047\",\"PhoneArea\":\"86\"},{\"UserID\":\"48030802-6daf-5917-8f62-6e2e5b73bd9c\",\"IsAdmin\":\"n\",\"NickName\":\"13300000055\",\"Email\":\"\",\"Phone\":\"13300000055\",\"PhoneArea\":\"86\"},{\"UserID\":\"49c678de-8724-5ece-adde-7ea866d0c69b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000051\",\"Email\":\"\",\"Phone\":\"13300000051\",\"PhoneArea\":\"86\"},{\"UserID\":\"4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115\",\"IsAdmin\":\"n\",\"NickName\":\"13300000089\",\"Email\":\"\",\"Phone\":\"13300000089\",\"PhoneArea\":\"86\"},{\"UserID\":\"4f4d5a7e-0f6b-5086-9788-ab131206b998\",\"IsAdmin\":\"n\",\"NickName\":\"13300000067\",\"Email\":\"\",\"Phone\":\"13300000067\",\"PhoneArea\":\"86\"},{\"UserID\":\"53a5929d-4e1a-5c9e-986d-7f0c7123fce6\",\"IsAdmin\":\"n\",\"NickName\":\"13300000028\",\"Email\":\"\",\"Phone\":\"13300000028\",\"PhoneArea\":\"86\"},{\"UserID\":\"5483f311-dea6-595c-9216-fc56c4cca793\",\"IsAdmin\":\"n\",\"NickName\":\"13300000013\",\"Email\":\"\",\"Phone\":\"13300000013\",\"PhoneArea\":\"86\"},{\"UserID\":\"5a73aa3c-691c-53cf-89f9-c97d18105836\",\"IsAdmin\":\"n\",\"NickName\":\"13300000056\",\"Email\":\"\",\"Phone\":\"13300000056\",\"PhoneArea\":\"86\"},{\"UserID\":\"5eedf353-0d55-52d4-83af-7be24a73010b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000027\",\"Email\":\"\",\"Phone\":\"13300000027\",\"PhoneArea\":\"86\"},{\"UserID\":\"6e26cc06-7477-5220-ad9c-9d6d949fa040\",\"IsAdmin\":\"n\",\"NickName\":\"13300000086\",\"Email\":\"\",\"Phone\":\"13300000086\",\"PhoneArea\":\"86\"},{\"UserID\":\"719e6c3d-3b24-5ccd-9526-0e139e148cca\",\"IsAdmin\":\"n\",\"NickName\":\"13300000101\",\"Email\":\"\",\"Phone\":\"13300000101\",\"PhoneArea\":\"86\"},{\"UserID\":\"73720a25-f9df-5051-9711-d27e7a2d448c\",\"IsAdmin\":\"n\",\"NickName\":\"13300000080\",\"Email\":\"\",\"Phone\":\"13300000080\",\"PhoneArea\":\"86\"},{\"UserID\":\"76131f7d-3696-5523-83ae-da0d4b096ce1\",\"IsAdmin\":\"n\",\"NickName\":\"13300000078\",\"Email\":\"\",\"Phone\":\"13300000078\",\"PhoneArea\":\"86\"},{\"UserID\":\"7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa\",\"IsAdmin\":\"n\",\"NickName\":\"13300000060\",\"Email\":\"\",\"Phone\":\"13300000060\",\"PhoneArea\":\"86\"},{\"UserID\":\"7bda8766-0d2e-5bd7-b98f-64cf77232533\",\"IsAdmin\":\"n\",\"NickName\":\"13300000048\",\"Email\":\"\",\"Phone\":\"13300000048\",\"PhoneArea\":\"86\"},{\"UserID\":\"7c6f2b9c-b934-532d-b535-860843be73ef\",\"IsAdmin\":\"n\",\"NickName\":\"13300000052\",\"Email\":\"\",\"Phone\":\"13300000052\",\"PhoneArea\":\"86\"},{\"UserID\":\"7ea83279-09e4-5aff-b01f-17b9435378f1\",\"IsAdmin\":\"n\",\"NickName\":\"13300000075\",\"Email\":\"\",\"Phone\":\"13300000075\",\"PhoneArea\":\"86\"},{\"UserID\":\"83d53cfd-c533-590d-b57c-6bc1b5b4337e\",\"IsAdmin\":\"n\",\"NickName\":\"13300000033\",\"Email\":\"\",\"Phone\":\"13300000033\",\"PhoneArea\":\"86\"},{\"UserID\":\"850eb7ec-b79e-589c-839d-c9d5816ac3d2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000072\",\"Email\":\"\",\"Phone\":\"13300000072\",\"PhoneArea\":\"86\"},{\"UserID\":\"857bed0f-bd8f-5d41-9292-a1ad21377f32\",\"IsAdmin\":\"n\",\"NickName\":\"13300000058\",\"Email\":\"\",\"Phone\":\"13300000058\",\"PhoneArea\":\"86\"},{\"UserID\":\"89dc0cfa-7560-546a-be68-6f509fc942aa\",\"IsAdmin\":\"n\",\"NickName\":\"13300000015\",\"Email\":\"\",\"Phone\":\"13300000015\",\"PhoneArea\":\"86\"},{\"UserID\":\"8a783d97-dbed-5910-9471-d66d9baf3fd2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000059\",\"Email\":\"\",\"Phone\":\"13300000059\",\"PhoneArea\":\"86\"},{\"UserID\":\"8e896f0e-6ad3-5135-99b2-c9471a1af0df\",\"IsAdmin\":\"n\",\"NickName\":\"13300000095\",\"Email\":\"\",\"Phone\":\"13300000095\",\"PhoneArea\":\"86\"},{\"UserID\":\"94ba8bc2-8af0-5b05-a0de-23885629265b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000042\",\"Email\":\"\",\"Phone\":\"13300000042\",\"PhoneArea\":\"86\"},{\"UserID\":\"981736a9-4c15-57a5-8c75-a3c4f50fae42\",\"IsAdmin\":\"n\",\"NickName\":\"13300000064\",\"Email\":\"\",\"Phone\":\"13300000064\",\"PhoneArea\":\"86\"},{\"UserID\":\"9818e4fa-0eea-5862-a4a0-16ca5cb817ec\",\"IsAdmin\":\"n\",\"NickName\":\"13300000007\",\"Email\":\"\",\"Phone\":\"13300000007\",\"PhoneArea\":\"86\"},{\"UserID\":\"981f9f2e-c558-58e4-9a14-142d4d263e49\",\"IsAdmin\":\"n\",\"NickName\":\"13300000097\",\"Email\":\"\",\"Phone\":\"13300000097\",\"PhoneArea\":\"86\"},{\"UserID\":\"98878cd8-85fd-5ece-8ef5-533e9741064f\",\"IsAdmin\":\"n\",\"NickName\":\"13300000063\",\"Email\":\"\",\"Phone\":\"13300000063\",\"PhoneArea\":\"86\"},{\"UserID\":\"9a84929e-aaa6-5a51-9151-da109cc5772a\",\"IsAdmin\":\"n\",\"NickName\":\"13300000009\",\"Email\":\"\",\"Phone\":\"13300000009\",\"PhoneArea\":\"86\"},{\"UserID\":\"9c266a52-bd81-5652-aeba-320c919afdda\",\"IsAdmin\":\"n\",\"NickName\":\"13300000076\",\"Email\":\"\",\"Phone\":\"13300000076\",\"PhoneArea\":\"86\"},{\"UserID\":\"9c683d37-46a9-5b17-9873-69372b4bf428\",\"IsAdmin\":\"n\",\"NickName\":\"13300000085\",\"Email\":\"\",\"Phone\":\"13300000085\",\"PhoneArea\":\"86\"},{\"UserID\":\"9c68a1cb-e1b1-56c0-8548-07af3fb7d83b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000068\",\"Email\":\"\",\"Phone\":\"13300000068\",\"PhoneArea\":\"86\"},{\"UserID\":\"a46a904d-a2ca-549a-936d-58171c86c801\",\"IsAdmin\":\"n\",\"NickName\":\"13300000032\",\"Email\":\"\",\"Phone\":\"13300000032\",\"PhoneArea\":\"86\"},{\"UserID\":\"a5704b36-25bf-502b-92ec-b8c9aa395d82\",\"IsAdmin\":\"n\",\"NickName\":\"13300000030\",\"Email\":\"\",\"Phone\":\"13300000030\",\"PhoneArea\":\"86\"},{\"UserID\":\"a9c0f975-a756-5508-975a-bef52708c15a\",\"IsAdmin\":\"n\",\"NickName\":\"13300000094\",\"Email\":\"\",\"Phone\":\"13300000094\",\"PhoneArea\":\"86\"},{\"UserID\":\"af43cb83-a6b9-5a28-b473-aa78e3896569\",\"IsAdmin\":\"n\",\"NickName\":\"13300000018\",\"Email\":\"\",\"Phone\":\"13300000018\",\"PhoneArea\":\"86\"},{\"UserID\":\"b1294787-c4ce-5329-859e-ffd826ba03dd\",\"IsAdmin\":\"n\",\"NickName\":\"13300000043\",\"Email\":\"\",\"Phone\":\"13300000043\",\"PhoneArea\":\"86\"},{\"UserID\":\"b2774d22-f323-5ea3-8784-01dfacb1d3c2\",\"IsAdmin\":\"y\",\"NickName\":\"TT\",\"Email\":\"\",\"Phone\":\"15957129104\",\"PhoneArea\":\"86\"},{\"UserID\":\"b6178293-c5c4-5e1d-af7c-2be1e54fe252\",\"IsAdmin\":\"n\",\"NickName\":\"13300000039\",\"Email\":\"\",\"Phone\":\"13300000039\",\"PhoneArea\":\"86\"},{\"UserID\":\"bdfbcfd6-76a4-5804-8167-8e60a92af96b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000031\",\"Email\":\"\",\"Phone\":\"13300000031\",\"PhoneArea\":\"86\"},{\"UserID\":\"bf0583cb-3e3e-523d-b716-892837106dd1\",\"IsAdmin\":\"n\",\"NickName\":\"13300000023\",\"Email\":\"\",\"Phone\":\"13300000023\",\"PhoneArea\":\"86\"},{\"UserID\":\"bfd243e9-204a-5792-a989-717e9abfbc62\",\"IsAdmin\":\"n\",\"NickName\":\"13300000020\",\"Email\":\"\",\"Phone\":\"13300000020\",\"PhoneArea\":\"86\"},{\"UserID\":\"c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df\",\"IsAdmin\":\"n\",\"NickName\":\"13300000083\",\"Email\":\"\",\"Phone\":\"13300000083\",\"PhoneArea\":\"86\"},{\"UserID\":\"c426c3fc-738e-5659-899c-604b4daf6077\",\"IsAdmin\":\"n\",\"NickName\":\"13300000077\",\"Email\":\"\",\"Phone\":\"13300000077\",\"PhoneArea\":\"86\"},{\"UserID\":\"c510527a-7bd4-586b-9a82-7123d61cc52a\",\"IsAdmin\":\"n\",\"NickName\":\"13300000062\",\"Email\":\"\",\"Phone\":\"13300000062\",\"PhoneArea\":\"86\"},{\"UserID\":\"c7836ac3-07e7-574c-9410-87d9f4d0ddb2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000036\",\"Email\":\"\",\"Phone\":\"13300000036\",\"PhoneArea\":\"86\"},{\"UserID\":\"cac20118-bbf7-57ad-b943-6ed2fc2fcf42\",\"IsAdmin\":\"n\",\"NickName\":\"13300000081\",\"Email\":\"\",\"Phone\":\"13300000081\",\"PhoneArea\":\"86\"},{\"UserID\":\"ccce18cc-68f3-5018-b775-95aab94b18b3\",\"IsAdmin\":\"n\",\"NickName\":\"13300000091\",\"Email\":\"\",\"Phone\":\"13300000091\",\"PhoneArea\":\"86\"},{\"UserID\":\"d02c9fcf-a7d2-55fc-8185-5a69bfb8b948\",\"IsAdmin\":\"n\",\"NickName\":\"13300000006\",\"Email\":\"\",\"Phone\":\"13300000006\",\"PhoneArea\":\"86\"},{\"UserID\":\"d0c3b751-183d-53d8-ace3-5730be5bc99e\",\"IsAdmin\":\"n\",\"NickName\":\"13300000054\",\"Email\":\"\",\"Phone\":\"13300000054\",\"PhoneArea\":\"86\"},{\"UserID\":\"d34d42d9-f18a-5257-9f04-ec6cc756dc64\",\"IsAdmin\":\"n\",\"NickName\":\"13300000088\",\"Email\":\"\",\"Phone\":\"13300000088\",\"PhoneArea\":\"86\"},{\"UserID\":\"d5d84ce1-6e55-56e0-a971-3165747908e6\",\"IsAdmin\":\"n\",\"NickName\":\"13300000079\",\"Email\":\"\",\"Phone\":\"13300000079\",\"PhoneArea\":\"86\"},{\"UserID\":\"d8a0acaa-bb7c-5c11-873e-dea55543451b\",\"IsAdmin\":\"n\",\"NickName\":\"13300000087\",\"Email\":\"\",\"Phone\":\"13300000087\",\"PhoneArea\":\"86\"},{\"UserID\":\"dac50d1a-61b5-561a-a39f-f20d661a89de\",\"IsAdmin\":\"n\",\"NickName\":\"13300000010\",\"Email\":\"\",\"Phone\":\"13300000010\",\"PhoneArea\":\"86\"},{\"UserID\":\"dadff6a0-33dc-56e2-bb9d-60a875b43942\",\"IsAdmin\":\"n\",\"NickName\":\"13300000044\",\"Email\":\"\",\"Phone\":\"13300000044\",\"PhoneArea\":\"86\"},{\"UserID\":\"db9eb71b-462b-5810-b8e6-e18113b19976\",\"IsAdmin\":\"n\",\"NickName\":\"13300000045\",\"Email\":\"\",\"Phone\":\"13300000045\",\"PhoneArea\":\"86\"},{\"UserID\":\"de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378\",\"IsAdmin\":\"n\",\"NickName\":\"13300000082\",\"Email\":\"\",\"Phone\":\"13300000082\",\"PhoneArea\":\"86\"},{\"UserID\":\"e1039c46-54f9-5f4d-a1f7-eff55694dcd6\",\"IsAdmin\":\"n\",\"NickName\":\"13300000069\",\"Email\":\"\",\"Phone\":\"13300000069\",\"PhoneArea\":\"86\"},{\"UserID\":\"e53f8319-9c56-5503-b157-317250c34eaa\",\"IsAdmin\":\"n\",\"NickName\":\"13300000034\",\"Email\":\"\",\"Phone\":\"13300000034\",\"PhoneArea\":\"86\"},{\"UserID\":\"e5779f2e-2ff7-5d95-bf46-16f4980c439c\",\"IsAdmin\":\"n\",\"NickName\":\"13300000098\",\"Email\":\"\",\"Phone\":\"13300000098\",\"PhoneArea\":\"86\"},{\"UserID\":\"ea067f1b-1e52-55f2-a9cd-f06b29043ff2\",\"IsAdmin\":\"n\",\"NickName\":\"13300000003\",\"Email\":\"\",\"Phone\":\"13300000003\",\"PhoneArea\":\"86\"},{\"UserID\":\"ea136595-86c7-5b20-b83e-f2bd22baac30\",\"IsAdmin\":\"n\",\"NickName\":\"13300000025\",\"Email\":\"\",\"Phone\":\"13300000025\",\"PhoneArea\":\"86\"},{\"UserID\":\"eb8fb933-420b-5473-a83b-d4c765032123\",\"IsAdmin\":\"n\",\"NickName\":\"13300000037\",\"Email\":\"\",\"Phone\":\"13300000037\",\"PhoneArea\":\"86\"},{\"UserID\":\"f02a239d-0dba-516d-bda1-3ad25190ed6c\",\"IsAdmin\":\"n\",\"NickName\":\"13300000004\",\"Email\":\"\",\"Phone\":\"13300000004\",\"PhoneArea\":\"86\"},{\"UserID\":\"f0c854a8-fa4c-5427-bd20-353c77945f24\",\"IsAdmin\":\"n\",\"NickName\":\"13300000046\",\"Email\":\"\",\"Phone\":\"13300000046\",\"PhoneArea\":\"86\"},{\"UserID\":\"f883c6e2-faa6-50bb-8483-f28f579b1033\",\"IsAdmin\":\"n\",\"NickName\":\"13300000084\",\"Email\":\"\",\"Phone\":\"13300000084\",\"PhoneArea\":\"86\"},{\"UserID\":\"fc3a3db4-a881-5644-bd4d-2b367ed2b6ea\",\"IsAdmin\":\"n\",\"NickName\":\"13300000066\",\"Email\":\"\",\"Phone\":\"13300000066\",\"PhoneArea\":\"86\"},{\"UserID\":\"feaaa918-c288-5e73-baaa-ebaffac2ce08\",\"IsAdmin\":\"n\",\"NickName\":\"13300000005\",\"Email\":\"\",\"Phone\":\"13300000005\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"三维技工所","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"tong\",\"UserID\":\"084a5d84-2500-5826-bea6-ef3acd599976\",\"Email\":\"tongjingwei@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-11-03T09:40:55Z","Comments":"%!E(string=Contact: tong\u003cbr /\u003e)mail: tongjingwei@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"tong\",\"UserID\":\"084a5d84-2500-5826-bea6-ef3acd599976\",\"Email\":\"tongjingwei@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-11-03T09:40:55Z","Domain":"","FactoryType":"hospital","Id":"1a130d52-d016-581d-8b95-84f80a9e4278","IsDeleted":"","Members":{"String":"[{\"UserID\":\"084a5d84-2500-5826-bea6-ef3acd599976\",\"IsAdmin\":\"y\",\"NickName\":\"tong\",\"Email\":\"tongjingwei@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"},{\"UserID\":\"6cd9867e-e831-5d3f-9691-8a877198930e\",\"IsAdmin\":\"n\",\"NickName\":\"童医生9802\",\"Email\":\"\",\"Phone\":\"15397319802\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"闻堰卫生院","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"nan\",\"UserID\":\"36a91535-f82d-5b4b-b906-4f7f2275a73d\",\"Email\":\"\",\"Phone\":\"13687173533\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-10-20T02:54:51Z","Comments":"%!M(string=Contact: nan\u003cbr /\u003e)obile: 86-13687173533\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"nan\",\"UserID\":\"36a91535-f82d-5b4b-b906-4f7f2275a73d\",\"Email\":\"\",\"Phone\":\"13687173533\",\"PhoneArea\":\"86\"}","CreateOn":"2020-10-20T02:54:51Z","Domain":"","FactoryType":"hospital","Id":"376172d2-51ff-5b94-bf40-baf6e77b169a","IsDeleted":"","Members":{"String":"[{\"UserID\":\"36a91535-f82d-5b4b-b906-4f7f2275a73d\",\"IsAdmin\":\"y\",\"NickName\":\"nan\",\"Email\":\"\",\"Phone\":\"13687173533\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"医生","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"Ryan\",\"UserID\":\"f7b8a4d7-02cd-5fbd-9fb0-9e538d8cec46\",\"Email\":\"dental_support@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-10-14T07:35:51Z","Comments":"%!E(string=Contact: Ryan\u003cbr /\u003e)mail: dental_support@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"Ryan\",\"UserID\":\"f7b8a4d7-02cd-5fbd-9fb0-9e538d8cec46\",\"Email\":\"dental_support@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-10-14T07:35:51Z","Domain":"","FactoryType":"hospital","Id":"2075011c-5701-50f0-979e-f97f830617cf","IsDeleted":"","Members":{"String":"[{\"UserID\":\"f7b8a4d7-02cd-5fbd-9fb0-9e538d8cec46\",\"IsAdmin\":\"y\",\"NickName\":\"Ryan\",\"Email\":\"dental_support@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}]","Valid":true},"Name":"Shining3ds Clinic","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"Tom\",\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-10-10T02:37:47Z","Comments":"%!M(string=Contact: 王二\u003cbr /\u003e)obile: 86-18348301176\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"Tom\",\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}","CreateOn":"2020-10-10T02:37:47Z","Domain":"","FactoryType":"lab","Id":"f029e1b9-b164-5d8c-99f5-4987074060f2","IsDeleted":"","Members":{"String":"[{\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"IsAdmin\":\"y\",\"NickName\":\"Tom\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"开物技工所","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"张三\",\"UserID\":\"989e8236-a810-5546-95f4-8cdc4a8f9ba2\",\"Email\":\"m18348301176@163.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-10-10T02:36:10Z","Comments":"%!E(string=Contact: 张三\u003cbr /\u003e)mail: m18348301176@163.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"张三\",\"UserID\":\"989e8236-a810-5546-95f4-8cdc4a8f9ba2\",\"Email\":\"m18348301176@163.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-10-10T02:36:10Z","Domain":"","FactoryType":"lab","Id":"24088c72-e6ab-5fa0-ad89-ab72612d71ba","IsDeleted":"","Members":{"String":"[{\"UserID\":\"989e8236-a810-5546-95f4-8cdc4a8f9ba2\",\"IsAdmin\":\"y\",\"NickName\":\"张三\",\"Email\":\"m18348301176@163.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}]","Valid":true},"Name":"天工技工所","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"zmLabAdm\",\"UserID\":\"80e462dc-0093-5cb7-a8a0-eca839031ef2\",\"Email\":\"\",\"Phone\":\"18706845030\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-09-25T02:32:54Z","Comments":"%!M(string=Contact: zm\u003cbr /\u003e)obile: 86-18706845030\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"zmLabAdm\",\"UserID\":\"80e462dc-0093-5cb7-a8a0-eca839031ef2\",\"Email\":\"\",\"Phone\":\"18706845030\",\"PhoneArea\":\"86\"}","CreateOn":"2020-09-25T02:32:54Z","Domain":"","FactoryType":"lab","Id":"11b590ad-bfb0-56e5-9b99-1a8eb0c65bfe","IsDeleted":"","Members":{"String":"[{\"UserID\":\"80e462dc-0093-5cb7-a8a0-eca839031ef2\",\"IsAdmin\":\"y\",\"NickName\":\"zmLabAdm\",\"Email\":\"\",\"Phone\":\"18706845030\",\"PhoneArea\":\"86\"},{\"UserID\":\"e4aa46fc-e40a-5ed3-a2d6-c2cecdefc4d2\",\"IsAdmin\":\"n\",\"NickName\":\"zmPersonal\",\"Email\":\"\",\"Phone\":\"18840341455\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"zmLab","ParentID":"","Status":"enable"},{"Addr":"浙江省杭州市萧山区闻堰镇","ChangeBy":"{\"NickName\":\"zmHospitalAdm\",\"UserID\":\"7855e781-2d5b-549b-bb42-142303407660\",\"Email\":\"zhaomeng@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-10-21T03:27:31Z","Comments":"%!E(string=Contact: zm\u003cbr /\u003e)mail: zhaomeng@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"zmHospitalAdm\",\"UserID\":\"7855e781-2d5b-549b-bb42-142303407660\",\"Email\":\"zhaomeng@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-09-25T02:29:36Z","Domain":"","FactoryType":"hospital","Id":"7f85b74d-e08a-573d-bea2-7652ea6d8439","IsDeleted":"","Members":{"String":"[{\"UserID\":\"7855e781-2d5b-549b-bb42-142303407660\",\"IsAdmin\":\"y\",\"NickName\":\"zmHospitalAdm\",\"Email\":\"zhaomeng@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"},{\"UserID\":\"e4aa46fc-e40a-5ed3-a2d6-c2cecdefc4d2\",\"IsAdmin\":\"n\",\"NickName\":\"zmPersonal\",\"Email\":\"\",\"Phone\":\"18840341455\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"zmHospital","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"11\",\"UserID\":\"439345ad-d3dc-5c1a-b0ec-3dd369d62d22\",\"Email\":\"liliangli@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-09-24T07:37:30Z","Comments":"%!E(string=Contact: 11\u003cbr /\u003e)mail: liliangli@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"11\",\"UserID\":\"439345ad-d3dc-5c1a-b0ec-3dd369d62d22\",\"Email\":\"liliangli@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-09-24T07:37:30Z","Domain":"","FactoryType":"lab","Id":"90cbd30d-9f6f-5bd9-90c4-1bd198f73d7b","IsDeleted":"","Members":{"String":"[{\"UserID\":\"439345ad-d3dc-5c1a-b0ec-3dd369d62d22\",\"IsAdmin\":\"y\",\"NickName\":\"11\",\"Email\":\"liliangli@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}]","Valid":true},"Name":"SUN","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"Tom\",\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-09-24T02:08:06Z","Comments":"%!M(string=Contact: Tom\u003cbr /\u003e)obile: 86-18348301176\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"Tom\",\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}","CreateOn":"2020-09-24T02:08:06Z","Domain":"","FactoryType":"lab","Id":"bca1ed45-ea16-576c-b416-647c4bdb17a5","IsDeleted":"","Members":{"String":"[{\"UserID\":\"b0013b9d-bb81-5242-9636-4147d61d9443\",\"IsAdmin\":\"y\",\"NickName\":\"Tom\",\"Email\":\"\",\"Phone\":\"18348301176\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"蓝翔技工所","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"12345\",\"UserID\":\"be209169-4f8b-5083-874b-4031db26e470\",\"Email\":\"1042532265@qq.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-09-18T00:50:00Z","Comments":"%!E(string=Contact: 12345\u003cbr /\u003e)mail: 1042532265@qq.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"12345\",\"UserID\":\"be209169-4f8b-5083-874b-4031db26e470\",\"Email\":\"1042532265@qq.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-09-18T00:50:00Z","Domain":"","FactoryType":"hospital","Id":"612a27ba-da1a-525e-b1e6-23bed6461483","IsDeleted":"","Members":{"String":"[{\"UserID\":\"be209169-4f8b-5083-874b-4031db26e470\",\"IsAdmin\":\"y\",\"NickName\":\"12345\",\"Email\":\"1042532265@qq.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}]","Valid":true},"Name":"m1042532265qq.com","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"曹张悦\",\"UserID\":\"a97f00b6-d926-5642-921c-5e0cb7bc25d0\",\"Email\":\"\",\"Phone\":\"18392604566\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-08-25T06:12:23Z","Comments":"%!M(string=Contact: 曹张悦\u003cbr /\u003e)obile: 86-18392604566\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"曹张悦\",\"UserID\":\"a97f00b6-d926-5642-921c-5e0cb7bc25d0\",\"Email\":\"\",\"Phone\":\"18392604566\",\"PhoneArea\":\"86\"}","CreateOn":"2020-08-25T06:12:23Z","Domain":"","FactoryType":"lab","Id":"5d5d19c7-cb17-5db0-bd4f-a4d12861c3f4","IsDeleted":"","Members":{"String":"[{\"UserID\":\"a97f00b6-d926-5642-921c-5e0cb7bc25d0\",\"IsAdmin\":\"y\",\"NickName\":\"曹张悦\",\"Email\":\"\",\"Phone\":\"18392604566\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"DentalTest","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"000\",\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-08-18T06:19:39Z","Comments":"%!M(string=Contact: adf\u003cbr /\u003e)obile: 86-13157122786\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"000\",\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}","CreateOn":"2020-08-18T06:19:39Z","Domain":"","FactoryType":"lab","Id":"cb12dac3-192e-5970-bfbd-4f12b5342390","IsDeleted":"","Members":{"String":"[{\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"IsAdmin\":\"y\",\"NickName\":\"000\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"bbb","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"000\",\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-08-12T03:25:17Z","Comments":"%!M(string=Contact: 000\u003cbr /\u003e)obile: 86-13157122786\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"000\",\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}","CreateOn":"2020-08-12T03:25:17Z","Domain":"","FactoryType":"lab","Id":"2378b73e-dd3d-5f7a-bcdd-75dd649ca22a","IsDeleted":"","Members":{"String":"[{\"UserID\":\"9b1cd08d-ede5-54ec-be8b-bcc38aa954a9\",\"IsAdmin\":\"y\",\"NickName\":\"000\",\"Email\":\"\",\"Phone\":\"13157122786\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"lll","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"123\",\"UserID\":\"9a20407e-ee08-5912-babb-3454ec9f5033\",\"Email\":\"xuanyizhou@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-08-12T03:04:30Z","Comments":"%!E(string=Contact: 123\u003cbr /\u003e)mail: xuanyizhou@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"123\",\"UserID\":\"9a20407e-ee08-5912-babb-3454ec9f5033\",\"Email\":\"xuanyizhou@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","CreateOn":"2020-08-12T03:04:30Z","Domain":"","FactoryType":"hospital","Id":"5c6eaacf-fc1a-5bc4-9880-e509a0ca0c33","IsDeleted":"","Members":{"String":"","Valid":false},"Name":"abc","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"吴旭军\",\"UserID\":\"560b5a52c23aaf15392f4bc1\",\"Email\":\"victor@shining3d.com\",\"Phone\":\"18969979799\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-07-30T16:15:40Z","Comments":"%!M(string=Contact: reg\u003cbr /\u003e)obile: 86-18969979799\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"吴旭军\",\"UserID\":\"560b5a52c23aaf15392f4bc1\",\"Email\":\"victor@shining3d.com\",\"Phone\":\"18969979799\",\"PhoneArea\":\"86\"}","CreateOn":"2020-07-30T16:15:40Z","Domain":"","FactoryType":"lab","Id":"7201555e-4687-5f86-add9-284048774ae2","IsDeleted":"","Members":{"String":"[{\"UserID\":\"560b5a52c23aaf15392f4bc1\",\"IsAdmin\":\"y\",\"NickName\":\"吴旭军\",\"Email\":\"victor@shining3d.com\",\"Phone\":\"18969979799\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"reg","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"赵萌Lab管理员\",\"UserID\":\"855f6da6-c42c-55a7-ac12-6ba07d0f4578\",\"Email\":\"\",\"Phone\":\"18032081121\",\"PhoneArea\":\"86\"}","ChangeOn":"2020-07-23T02:04:33Z","Comments":"%!M(string=Contact: 赵萌Lab管理员\u003cbr /\u003e)obile: 86-18032081121\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"赵萌Lab管理员\",\"UserID\":\"855f6da6-c42c-55a7-ac12-6ba07d0f4578\",\"Email\":\"\",\"Phone\":\"18032081121\",\"PhoneArea\":\"86\"}","CreateOn":"2020-07-23T02:04:33Z","Domain":"","FactoryType":"lab","Id":"ef37e156-7a40-53ff-b5f7-9c0f2247ec13","IsDeleted":"","Members":{"String":"[{\"UserID\":\"855f6da6-c42c-55a7-ac12-6ba07d0f4578\",\"IsAdmin\":\"y\",\"NickName\":\"赵萌Lab管理员\",\"Email\":\"\",\"Phone\":\"18032081121\",\"PhoneArea\":\"86\"}]","Valid":true},"Name":"尚月英Lab1","ParentID":"","Status":"enable"},{"Addr":"","ChangeBy":"{\"NickName\":\"尚月英Lab管理员\",\"UserID\":\"bffad18b-feef-5868-8de6-5167f13ba68b\",\"Email\":\"shangyueying@shining3d.com\",\"Phone\":\"\",\"PhoneArea\":\"\"}","ChangeOn":"2020-07-23T02:01:46Z","Comments":"%!E(string=Contact: 尚月英Lab管理员\u003cbr /\u003e)mail: shangyueying@shining3d.com\u003cbr /\u003e","Contact":"","ContactWay":"","CreateBy":"{\"NickName\":\"尚月英Lab管理员\",\"UserID\":\"bffad18b-feef-5868-8de6-5167f13ba68b\",\"Email\":\"shangyueying@shining3d.com\",\"Ph</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
@@ -852,6 +895,21 @@
           <t>success</t>
         </is>
       </c>
+      <c r="L5" s="22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M5" s="20" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":41,"total":809},"result":[{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-12-02T03:14:41Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-12-02T03:14:41Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"59aed065-949b-516f-ac8b-8b3180399b47","IsAdmin":"n","NickName":"13300000101","Phone":"13300000101","PhoneArea":"86","Status":"active","UserID":"719e6c3d-3b24-5ccd-9526-0e139e148cca"},{"ChangeBy":"97aae085-faae-5b64-9dae-85a0e7f92231","ChangeOn":"2020-11-19T10:00:25Z","CreateBy":"97aae085-faae-5b64-9dae-85a0e7f92231","CreateOn":"2020-11-19T10:00:25Z","Email":"","FactoryID":"0b8fb45a-5873-59e6-9e6b-60ed6d08c2cb","FactoryName":"chen lab","FactoryType":"lab","Id":"1799c65a-9800-57b7-92aa-092d1e6e76da","IsAdmin":"y","NickName":"chendemiao","Phone":"18167102299","PhoneArea":"86","Status":"active","UserID":"97aae085-faae-5b64-9dae-85a0e7f92231"},{"ChangeBy":"","ChangeOn":"2020-11-12T10:30:16Z","CreateBy":"","CreateOn":"2020-11-12T10:30:16Z","Email":"","FactoryID":"","FactoryName":"","FactoryType":"","Id":"","IsAdmin":"","NickName":"徐鹏","Phone":"16621143767","PhoneArea":"86","Status":"active","UserID":"34448b04-82af-5bf4-8af6-d384c0b6095b"},{"ChangeBy":"560b5a52c23aaf15392f4bc1","ChangeOn":"2020-11-10T10:13:10Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:10Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"61547b5a-0ad5-52b8-83df-600aed0b4e58","IsAdmin":"y","NickName":"13300000099","Phone":"13300000099","PhoneArea":"86","Status":"active","UserID":"12dc011b-d353-5104-a9fe-e540baf6318f"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:10Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:10Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"d10c8ca4-8e22-5db1-bcf0-0e917cd1a65a","IsAdmin":"n","NickName":"13300000098","Phone":"13300000098","PhoneArea":"86","Status":"active","UserID":"e5779f2e-2ff7-5d95-bf46-16f4980c439c"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:10Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:10Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"1e434da0-bde0-50fa-a561-72569261edd6","IsAdmin":"n","NickName":"13300000100","Phone":"13300000100","PhoneArea":"86","Status":"active","UserID":"3e9000cf-aa0c-5861-98d1-f28855164fe2"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:10Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:10Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"d02bc16a-6718-515b-bd3f-4dcc0e2bbec3","IsAdmin":"n","NickName":"13300000097","Phone":"13300000097","PhoneArea":"86","Status":"active","UserID":"981f9f2e-c558-58e4-9a14-142d4d263e49"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:09Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:09Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"a5f21bac-781c-5d3a-b1b5-60b70eec1121","IsAdmin":"n","NickName":"13300000096","Phone":"13300000096","PhoneArea":"86","Status":"active","UserID":"2ad9f533-9d1a-5473-aed5-6e0848809df5"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:09Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:09Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"ed07f7ca-3dc1-54b0-b2ec-f176a7e83e9b","IsAdmin":"n","NickName":"13300000094","Phone":"13300000094","PhoneArea":"86","Status":"active","UserID":"a9c0f975-a756-5508-975a-bef52708c15a"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:09Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:09Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"67c05119-385e-5e22-a5de-73b725783a57","IsAdmin":"n","NickName":"13300000095","Phone":"13300000095","PhoneArea":"86","Status":"active","UserID":"8e896f0e-6ad3-5135-99b2-c9471a1af0df"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:08Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:08Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"6320269e-3759-5cb9-9328-c5c3066d1bfa","IsAdmin":"n","NickName":"13300000092","Phone":"13300000092","PhoneArea":"86","Status":"active","UserID":"3620e132-0281-50ed-a8a2-0cb8b50b54f1"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:08Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:08Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"88c40b19-754c-5256-9648-d85a0790e963","IsAdmin":"n","NickName":"13300000091","Phone":"13300000091","PhoneArea":"86","Status":"active","UserID":"ccce18cc-68f3-5018-b775-95aab94b18b3"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:08Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:08Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"79f0189c-ef90-5fb3-bf39-619a28c013f8","IsAdmin":"n","NickName":"13300000093","Phone":"13300000093","PhoneArea":"86","Status":"active","UserID":"11cb0e56-eee7-5c2b-9cf5-efd8bce0665d"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:08Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:08Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"b160004f-cc1d-5be2-b690-4aebf3e6cd25","IsAdmin":"n","NickName":"13300000090","Phone":"13300000090","PhoneArea":"86","Status":"active","UserID":"292eed56-a2c6-55f1-880d-4f5fb5db5aad"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:07Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:07Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"7347e769-2afd-51af-8630-509444faeb5d","IsAdmin":"n","NickName":"13300000086","Phone":"13300000086","PhoneArea":"86","Status":"active","UserID":"6e26cc06-7477-5220-ad9c-9d6d949fa040"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:07Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:07Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"5d6b3ca7-a958-504e-b6df-2771309e99d1","IsAdmin":"n","NickName":"13300000089","Phone":"13300000089","PhoneArea":"86","Status":"active","UserID":"4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:07Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:07Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"87bbd9a8-b9a1-5435-a421-e241af281bca","IsAdmin":"n","NickName":"13300000088","Phone":"13300000088","PhoneArea":"86","Status":"active","UserID":"d34d42d9-f18a-5257-9f04-ec6cc756dc64"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:07Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:07Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"5b0abcaa-9807-50bc-81f4-e98f0d35dca1","IsAdmin":"n","NickName":"13300000087","Phone":"13300000087","PhoneArea":"86","Status":"active","UserID":"d8a0acaa-bb7c-5c11-873e-dea55543451b"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:06Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:06Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"37bb370e-19b9-53ab-a1da-6394f5bdc865","IsAdmin":"n","NickName":"13300000084","Phone":"13300000084","PhoneArea":"86","Status":"active","UserID":"f883c6e2-faa6-50bb-8483-f28f579b1033"},{"ChangeBy":"084a5d84-2500-5826-bea6-ef3acd599976","ChangeOn":"2020-11-10T10:13:06Z","CreateBy":"084a5d84-2500-5826-bea6-ef3acd599976","CreateOn":"2020-11-10T10:13:06Z","Email":"","FactoryID":"0a20504d-34db-5402-a424-d3d79545e63a","FactoryName":"三维技工所","FactoryType":"lab","Id":"522de964-7ccd-5373-b17e-0fdc5f699582","IsAdmin":"n","NickName":"13300000083","Phone":"13300000083","PhoneArea":"86","Status":"active","UserID":"c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df"}],"status":"success"}{"result":"authErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="inlineStr">
@@ -899,6 +957,21 @@
           <t>success</t>
         </is>
       </c>
+      <c r="L6" s="22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" s="20" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":39,"total":767},"result":[{"Attachs":"[{\"AttachType\":\"full_stl\",\"FileName\":\"2020-11-27_001_134_zipup_stl.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:23\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462_out/full/a48400a4a615f2bfc0ac39e721ccb26d\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-27_001_134-UpperJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:20\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462_out/pngFiles/8528af71cca7fef205f8fcafa70c3d9b\"},{\"AttachType\":\"preview\",\"FileName\":\"2020-11-27_001_134.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:24:35\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalComment/e257341cbc32d6302ebb1b0e3851326d\"},{\"AttachType\":\"full_obj\",\"FileName\":\"2020-11-27_001_134_zipup_obj.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:23\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462_out/full/381786184de483dcc9c6f2a2dab84f47\"},{\"AttachType\":\"full\",\"FileName\":\"2020-11-27_001_134.zip\",\"Status\":\"finished\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:24\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462\"},{\"AttachType\":\"full_ply\",\"FileName\":\"2020-11-27_001_134_zipup_ply.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:24\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462_out/full/ddf967c0d57aca0f3fd61c449209fd20\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-27_001_134-UpperJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-27 02:26:20\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/fe5078858fcfa55b08187528de148462_out/preview3d/2020-11-27_001_134/2020-11-27_001_134/2020-11-27_001_134-UpperJaw.ply\"}]","ChangeBy":"","ChangeOn":"2020-11-27T02:24:35Z","Client":"{\"modelCode\":\"aoralscan2\",\"serialNum\":\"AOS-AH007J21\",\"softName\":\"aoralscan\",\"softVer\":\"3.0.0.0\",\"uniqueInstallCode\":\"4680c594-ccb3-5c8b-997c-3a79167e70cd\",\"uniqueUsageCode\":\"10830117-7514-5e20-bcec-a27a05543d4d\"}","Comments":"[]","Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606443696,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9f88bd62-8c96-4b9f-b1f3-e050589d45b9\",\"modifyTime\":1606443711,\"orderCustomName\":\"134\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"134\",\"patientName\":\"134\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":134,\"version\":\"1.2\",\"waxBridges\":[]}","CreateBy":"","CreateOn":"2020-11-27T02:24:35Z","DeliveryNum":"","DeliverySupplior":"","DentalNotation":"FDI","DesignDfsID":"","DesignOptions":"AnatomicCrown","DesignType":"repair","Doctor":"","HospitalID":"","Hospitals":"","Id":"af4d4aa0-ada9-5f88-a8cd-a92f6ce85b6b","IsBeb":false,"IsDeleted":"","IssueAdmins":{"String":"","Valid":true},"Lab":"{\"ID\":\"bca1ed45-ea16-576c-b416-647c4bdb17a5\"}","LabAdmins":{"String":"","Valid":true},"LabMembers":{"String":"","Valid":true},"Lang":"en","Materials":"PMMA_3ax","NeedConfirm":false,"Notes":"Shade: none.\nSpecial Requirements: none.","PatientName":"134","Status":"waitAccept","Tooths":"28"},{"Attachs":"[{\"AttachType\":\"full_ply\",\"FileName\":\"2020-11-26_001_123_zipup_ply.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:39:02\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/full/55708372dd19be1bcbe32daf4f1b2791\"},{\"AttachType\":\"full_stl\",\"FileName\":\"2020-11-26_001_123_zipup_stl.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:38:59\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/full/b804bc8ac6d61779d4376ce011bcda72\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-26_001_123-TotalJaw1_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:33:30\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/pngFiles/f83d5db66e9996b853350d3bc60e265a\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-26_001_123-TotalJaw1.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:33:30\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/preview3d/2020-11-26_001_123/2020-11-26_001_123/2020-11-26_001_123-TotalJaw1.ply\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-26_001_123-UpperJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:38:53\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/preview3d/2020-11-26_001_123/2020-11-26_001_123/2020-11-26_001_123-UpperJaw.ply\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-26_001_123-TotalJaw0.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:31:46\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/preview3d/2020-11-26_001_123/2020-11-26_001_123/2020-11-26_001_123-TotalJaw0.ply\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-26_001_123-LowerJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:28:50\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/preview3d/2020-11-26_001_123/2020-11-26_001_123/2020-11-26_001_123-LowerJaw.ply\"},{\"AttachType\":\"full\",\"FileName\":\"2020-11-26_001_123.zip\",\"Status\":\"finished\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:39:03\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-26_001_123-TotalJaw0_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:31:46\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/pngFiles/80051ec1a983b11c2826ed900362bd07\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-26_001_123-UpperJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:38:53\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/pngFiles/3a67c147b2f4077d43dac162ec375c34\"},{\"AttachType\":\"full_obj\",\"FileName\":\"2020-11-26_001_123_zipup_obj.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:39:01\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/full/9e03b777bad969588ee06e846ce4cf48\"},{\"AttachType\":\"preview\",\"FileName\":\"2020-11-26_001_123.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:21:17\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalComment/8bb64c2863c6ec2d7b42fbc3a53bed44\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-26_001_123-LowerJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 09:28:49\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/075fe8f49ed1a17be73cf43e26f8d1d6_out/pngFiles/65c1457a5e6f076a60dc1b55f5665635\"}]","ChangeBy":"","ChangeOn":"2020-11-26T09:21:17Z","Client":"{\"modelCode\":\"aoralscan2\",\"serialNum\":\"AOS-AH007J21\",\"softName\":\"aoralscan\",\"softVer\":\"3.0.0.0\",\"uniqueInstallCode\":\"3fe3ca29-6302-5f85-8c69-0894d9733008\",\"uniqueUsageCode\":\"f41f7d6a-7ba4-5864-9a29-04b591104561\"}","Comments":"[]","Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606380770,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"74f66a88-0f44-4413-8459-94c6c5aabed5\",\"modifyTime\":1606380775,\"orderCustomName\":\"123\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"123\",\"patientName\":\"123\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":123,\"version\":\"1.2\",\"waxBridges\":[]}","CreateBy":"","CreateOn":"2020-11-26T09:21:17Z","DeliveryNum":"","DeliverySupplior":"","DentalNotation":"FDI","DesignDfsID":"","DesignOptions":"AnatomicCrown","DesignType":"repair","Doctor":"","HospitalID":"","Hospitals":"","Id":"40a5b151-a4ac-56a6-8b22-1d032bdfe01f","IsBeb":false,"IsDeleted":"","IssueAdmins":{"String":"","Valid":true},"Lab":"{\"ID\":\"bca1ed45-ea16-576c-b416-647c4bdb17a5\"}","LabAdmins":{"String":"","Valid":true},"LabMembers":{"String":"","Valid":true},"Lang":"en","Materials":"PMMA_3ax","NeedConfirm":false,"Notes":"Shade: none.\nSpecial Requirements: none.","PatientName":"123","Status":"waitAccept","Tooths":"28"},{"Attachs":"[{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21-UpperJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:18\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948_out/preview3d/2020-11-25_001_024_ZH口内-AH002J21/2020-11-25_001_024_ZH口内-AH002J21/2020-11-25_001_024_ZH口内-AH002J21-UpperJaw.ply\"},{\"AttachType\":\"full_obj\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21_zipup_obj.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:20\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948_out/full/b0758a10f73f1e8a9b10a4803ab463f1\"},{\"AttachType\":\"full_stl\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21_zipup_stl.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:19\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948_out/full/6b07f3c859e123a7c2473a05cfeca17b\"},{\"AttachType\":\"full\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21.zip\",\"Status\":\"finished\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:21\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21-UpperJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:18\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948_out/pngFiles/72cadc8636274930d641161f65146f77\"},{\"AttachType\":\"preview\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:49:11\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalComment/f43eea2effe77028af6371dd345f0794\"},{\"AttachType\":\"full_ply\",\"FileName\":\"2020-11-25_001_024_ZH口内-AH002J21_zipup_ply.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-26 07:50:20\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/6383a803c9324d57348898d083214948_out/full/f5b1b2027706b01a47393232844106cd\"}]","ChangeBy":"","ChangeOn":"2020-11-26T09:03:56Z","Client":"{\"modelCode\":\"aoralscan2\",\"serialNum\":\"AOS-AH005J21\",\"softName\":\"aoralscan\",\"softVer\":\"3.0.0.0\",\"uniqueInstallCode\":\"c015855a-93d7-5ab8-82fa-5cbd4754c76b\",\"uniqueUsageCode\":\"3a061e3d-fc54-5b30-ac92-f1acc6ca896b\"}","Comments":"[]","Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606289262,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9a062fb0-9a90-492f-90dd-be598bb0a026\",\"modifyTime\":1606376738,\"orderCustomName\":\"024\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"024\",\"patientName\":\"ZH口内-AH002J21\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"eng\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"\",\"materialName\":\"Zirconium\",\"mesialConnector\":false,\"number\":36,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Antagonist\",\"reconstructionType\":\"SRET_Antagonist\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false}],\"trayNo\":24,\"version\":\"1.2\",\"waxBridges\":[]}","CreateBy":"","CreateOn":"2020-11-26T07:49:11Z","DeliveryNum":"","DeliverySupplior":"","DentalNotation":"FDI","DesignDfsID":"","DesignOptions":"AnatomicCrown, Antagonist","DesignType":"repair","Doctor":"","HospitalID":"","Hospitals":"","Id":"715a7ba8-debc-5907-a79a-3d636c4dc57d","IsBeb":false,"IsDeleted":"","IssueAdmins":{"String":"","Valid":true},"Lab":"{\"ID\":\"18ce6556-ba41-556c-ad01-aff2f56d97d4\"}","LabAdmins":{"String":"","Valid":true},"LabMembers":{"String":"","Valid":true},"Lang":"eng","Materials":"PMMA_3ax, ","NeedConfirm":false,"Notes":"Shade: none.\nSpecial Requirements: none.","PatientName":"ZH口内-AH002J21","Status":"canceled","Tooths":"25, 36"},{"Attachs":"[{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_199-TotalJaw0_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:56:22\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/pngFiles/64126942957c4d817ddf07870e889528\"},{\"AttachType\":\"full_ply\",\"FileName\":\"2020-11-25_001_199_zipup_ply.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:25\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/full/7a70fa5e13cf8e1db4e4a2d9e13759b9\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_199-TotalJaw0.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:56:22\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/preview3d/2020-11-25_001_199/2020-11-25_001_199/2020-11-25_001_199-TotalJaw0.ply\"},{\"AttachType\":\"full_obj\",\"FileName\":\"2020-11-25_001_199_zipup_obj.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:22\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/full/ef270d45a95e1898535db4de2f388ecd\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_199-LowerJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:54:38\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/preview3d/2020-11-25_001_199/2020-11-25_001_199/2020-11-25_001_199-LowerJaw.ply\"},{\"AttachType\":\"preview\",\"FileName\":\"2020-11-25_001_199.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:44:20\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalComment/0d95e9d4172a10906fd738feb34f8293\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_199-UpperJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:10\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/pngFiles/326d46c87f6d757b107be66e2e0ea113\"},{\"AttachType\":\"full_stl\",\"FileName\":\"2020-11-25_001_199_zipup_stl.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:19\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/full/8ce45b9eeaf30d122bd5901a5627b864\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_199-LowerJaw_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:54:37\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/pngFiles/3cd78f8aa584e75502bf0b75aa3a35c2\"},{\"AttachType\":\"full\",\"FileName\":\"2020-11-25_001_199.zip\",\"Status\":\"finished\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:26\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_199-UpperJaw.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:06:11\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/f2b20e92c0f24ed4b5f6c8493bd58cc7_out/preview3d/2020-11-25_001_199/2020-11-25_001_199/2020-11-25_001_199-UpperJaw.ply\"}]","ChangeBy":"","ChangeOn":"2020-11-25T11:44:20Z","Client":"{\"modelCode\":\"aoralscan2\",\"serialNum\":\"AOS-AI007C26\",\"softName\":\"aoralscan\",\"softVer\":\"3.0.0.0\",\"uniqueInstallCode\":\"c01066f7-5e06-5f93-8756-2180da0a474d\",\"uniqueUsageCode\":\"79470790-8423-5dd4-8399-7bead1955f65\"}","Comments":"[]","Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606304302,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"90991549-0258-43f5-8cf6-4a01c4980d09\",\"modifyTime\":1606304306,\"orderCustomName\":\"199\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"199\",\"patientName\":\"199\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":14,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":199,\"version\":\"1.2\",\"waxBridges\":[]}","CreateBy":"","CreateOn":"2020-11-25T11:44:20Z","DeliveryNum":"","DeliverySupplior":"","DentalNotation":"FDI","DesignDfsID":"","DesignOptions":"AnatomicCrown","DesignType":"repair","Doctor":"","HospitalID":"","Hospitals":"","Id":"32a01599-44f7-5ef7-894f-58fdc1c457d4","IsBeb":false,"IsDeleted":"","IssueAdmins":{"String":"","Valid":true},"Lab":"{\"ID\":\"0a20504d-34db-5402-a424-d3d79545e63a\"}","LabAdmins":{"String":"","Valid":true},"LabMembers":{"String":"","Valid":true},"Lang":"en","Materials":"PMMA_3ax","NeedConfirm":false,"Notes":"Shade: none.\nSpecial Requirements: none.","PatientName":"199","Status":"waitAccept","Tooths":"14"},{"Attachs":"[{\"AttachType\":\"full_stl\",\"FileName\":\"2020-11-25_001_198_zipup_stl.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:23\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/full/45e0748119c1b4d410b39ffa99739385\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-LowerJaw-situ_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:02:34\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/bb044b9cbafffc147b4164812c5c4b89\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-UpperJaw-post.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:14:34\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-UpperJaw-post.ply\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-UpperJaw-post_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:14:33\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/5da3256feef28f1992d64ab7c5ecf470\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-TotalJaw1.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:05:14\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-TotalJaw1.ply\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-TotalJaw0.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:04:36\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-TotalJaw0.ply\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-TotalJaw0_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:04:36\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/b3e0f382eeb3570bb837ee9c109e7ba4\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-UpperJaw-situ.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:10\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-UpperJaw-situ.ply\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-UpperJaw-situ_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:09\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/8d78b4803f5538623ebb388b235258aa\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-LowerJaw-post_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:50:43\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/396509762af7175930ba22a78c6b2265\"},{\"AttachType\":\"full\",\"FileName\":\"2020-11-25_001_198.zip\",\"Status\":\"finished\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:24\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85\"},{\"AttachType\":\"preview\",\"FileName\":\"2020-11-25_001_198.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:38:32\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalComment/844f96772aa8e1f14f32d43309c8c82d\"},{\"AttachType\":\"full_obj\",\"FileName\":\"2020-11-25_001_198_zipup_obj.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:17\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/full/d9eddfb692d2976b042c1683ded18c5f\"},{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_198-TotalJaw1_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:05:14\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/pngFiles/1e9641a18e94a9aacabcfdeb3844011c\"},{\"AttachType\":\"full_ply\",\"FileName\":\"2020-11-25_001_198_zipup_ply.zip\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:23:20\",\"Bucket\":\"t-3datahz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"zip\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/full/71adc3b9c8504b32b81b385db747c9b9\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-LowerJaw-situ.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 12:02:35\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-LowerJaw-situ.ply\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_198-LowerJaw-post.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:50:44\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/45fac877c2730d3a3ad381c29063af85_out/preview3d/2020-11-25_001_198/2020-11-25_001_198/2020-11-25_001_198-LowerJaw-post.ply\"}]","ChangeBy":"","ChangeOn":"2020-11-25T11:38:32Z","Client":"{\"modelCode\":\"aoralscan2\",\"serialNum\":\"AOS-AI007C26\",\"softName\":\"aoralscan\",\"softVer\":\"3.0.0.0\",\"uniqueInstallCode\":\"c01066f7-5e06-5f93-8756-2180da0a474d\",\"uniqueUsageCode\":\"79470790-8423-5dd4-8399-7bead1955f65\"}","Comments":"[]","Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606303760,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"51dd6b80-f511-4d53-91b5-766a77fb6d53\",\"modifyTime\":1606303771,\"orderCustomName\":\"198\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"198\",\"patientName\":\"198\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":35,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true}],\"trayNo\":198,\"version\":\"1.2\",\"waxBridges\":[]}","CreateBy":"","CreateOn":"2020-11-25T11:38:32Z","DeliveryNum":"","DeliverySupplior":"","DentalNotation":"FDI","DesignDfsID":"","DesignOptions":"AnatomicCrown","DesignType":"repair","Doctor":"","HospitalID":"","Hospitals":"","Id":"4cac1104-1b05-59f7-aa21-4ceb72c2d6f6","IsBeb":false,"IsDeleted":"","IssueAdmins":{"String":"","Valid":true},"Lab":"{\"ID\":\"0a20504d-34db-5402-a424-d3d79545e63a\"}","LabAdmins":{"String":"","Valid":true},"LabMembers":{"String":"","Valid":true},"Lang":"en","Materials":"PMMA_3ax","NeedConfirm":false,"Notes":"Shade: none.\nSpecial Requirements: none.","PatientName":"198","Status":"waitAccept","Tooths":"25, 35"},{"Attachs":"[{\"AttachType\":\"full_preview\",\"FileName\":\"2020-11-25_001_196-TotalJaw1_90_90.png\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:34:56\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"png\",\"DfsID\":\"dentalFull/3d48fd9267bc56c5605ef6d087e3257c_out/pngFiles/6a7519a3085ede1373fafa3a40356dff\"},{\"AttachType\":\"full_preview3d\",\"FileName\":\"2020-11-25_001_196-TotalJaw2.ply\",\"Status\":\"init\",\"Notes\":\"\",\"CreateOn\":\"2020-11-25 11:35:57\",\"Bucket\":\"t-pubhz\",\"Endpoint\":\"https://oss-cn-hangzhou-internal.aliyuncs.com\",\"Ext\":\"ply\",\"DfsID\":\"dentalFull/3d48fd9267bc56c5605ef6d087e3257c_out/preview3d/2020-11-25_001_196/2020-11-25_</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="inlineStr">
@@ -946,6 +1019,21 @@
           <t>success</t>
         </is>
       </c>
+      <c r="L7" s="22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" s="20" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":39,"total":767},"result":null,"status":"success"}{"result":"authErr","status":"fail"}</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
@@ -993,10 +1081,25 @@
           <t>success</t>
         </is>
       </c>
+      <c r="L8" s="19" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M8" s="20" t="inlineStr">
+        <is>
+          <t>{"pageInfo":{"page":1,"pageSize":20,"pages":39,"total":767},"result":[{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606443696,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9f88bd62-8c96-4b9f-b1f3-e050589d45b9\",\"modifyTime\":1606443711,\"orderCustomName\":\"134\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"134\",\"patientName\":\"134\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":134,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-27T02:24:35Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"af4d4aa0-ada9-5f88-a8cd-a92f6ce85b6b","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"134","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606380770,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"74f66a88-0f44-4413-8459-94c6c5aabed5\",\"modifyTime\":1606380775,\"orderCustomName\":\"123\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"123\",\"patientName\":\"123\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":123,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-26T09:21:17Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"40a5b151-a4ac-56a6-8b22-1d032bdfe01f","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"123","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606289262,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9a062fb0-9a90-492f-90dd-be598bb0a026\",\"modifyTime\":1606376738,\"orderCustomName\":\"024\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"024\",\"patientName\":\"ZH口内-AH002J21\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"eng\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"\",\"materialName\":\"Zirconium\",\"mesialConnector\":false,\"number\":36,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Antagonist\",\"reconstructionType\":\"SRET_Antagonist\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false}],\"trayNo\":24,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-26T07:49:11Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"张慧","DoctorID":"66c85252-13f4-4062-8133-fc4f14e85732","HospitalID":"","Hospitals":"","Id":"715a7ba8-debc-5907-a79a-3d636c4dc57d","IssueAdmins":"","Lab":"3d技工所","LabAdmins":"1efec7ac-3929-4ae3-a06b-002386af4b19","LabMembers":"1efec7ac-3929-4ae3-a06b-002386af4b19","PatientName":"ZH口内-AH002J21","Status":"canceled"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606304302,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"90991549-0258-43f5-8cf6-4a01c4980d09\",\"modifyTime\":1606304306,\"orderCustomName\":\"199\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"199\",\"patientName\":\"199\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":14,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":199,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:44:20Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"32a01599-44f7-5ef7-894f-58fdc1c457d4","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"199","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606303760,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"51dd6b80-f511-4d53-91b5-766a77fb6d53\",\"modifyTime\":1606303771,\"orderCustomName\":\"198\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"198\",\"patientName\":\"198\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":35,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true}],\"trayNo\":198,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:38:32Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"4cac1104-1b05-59f7-aa21-4ceb72c2d6f6","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"198","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606302075,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"6f5d731c-ddd4-41ef-b87b-b11b67d7d4f3\",\"modifyTime\":1606302081,\"orderCustomName\":\"196\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"196\",\"patientName\":\"196\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":196,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:22:22Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"6def287a-d542-518e-8dea-63508f9f126a","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"196","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":true,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605699553,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"34088640-b416-4402-98a4-db8fe0f1f937\",\"modifyTime\":1605699566,\"orderCustomName\":\"084\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"084\",\"patientName\":\"084\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":11,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":84,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-24T07:36:01Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"9684b6f4-0da2-5bd4-9059-3616403e582e","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"084","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606113542,\"dentistry\":\"SDENTT_Ortho\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"e9348430-7b8d-455e-b002-e6c6feb9e590\",\"modifyTime\":1606113557,\"orderCustomName\":\"060\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"060\",\"patientName\":\"060\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[],\"trayNo\":60,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-23T06:48:09Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"orthodontic","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"bb98ce76-a1ed-59b6-895f-ff39a1eb5ee6","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"060","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605786137,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"10dc4f5f-6592-4101-8555-9d35f28da8f1\",\"modifyTime\":1605786146,\"orderCustomName\":\"102\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"102\",\"patientName\":\"102\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":12,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_LOWER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":31,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":102,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-19T11:55:06Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"e3bd00c8-b028-5af4-b957-1870d7e82a06","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"102","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605785622,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"26109acf-4324-4ad3-85b5-20cec071f743\",\"modifyTime\":1605785630,\"orderCustomName\":\"101\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"101\",\"patientName\":\"101\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":12,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":101,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-19T11:41:05Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"bd36f0e5-7aea-555a-936f-07ce75c9a307","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmi</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>tongjingwei</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1015,7 +1118,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
-    <row r="1" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="1" s="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1069,7 +1172,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="2" s="1">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1118,7 +1221,7 @@
       <c r="L2" s="6" t="n"/>
       <c r="M2" s="5" t="n"/>
     </row>
-    <row r="3" ht="29.95" customHeight="1" s="1">
+    <row customHeight="1" ht="29.95" r="3" s="1">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1348,7 +1451,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1366,6 +1469,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/report/excelReport/cloudAPIdental.xlsx
+++ b/report/excelReport/cloudAPIdental.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12682" windowWidth="23452" xWindow="-109" yWindow="-109"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -74,11 +74,6 @@
       <b val="1"/>
       <color rgb="00808000"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000FF00"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -119,83 +114,77 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -561,27 +550,27 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.33203125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.109375"/>
-    <col customWidth="1" max="3" min="3" style="1" width="30.109375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="42.44140625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.21875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="85.21875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="26.44140625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="58.33203125"/>
-    <col customWidth="1" max="9" min="9" style="2" width="12.88671875"/>
-    <col customWidth="1" max="10" min="10" style="2" width="12.109375"/>
-    <col customWidth="1" max="11" min="11" style="1" width="24.109375"/>
-    <col customWidth="1" max="13" min="13" style="1" width="10.21875"/>
+    <col width="10.33203125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.109375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="30.109375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="42.44140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.21875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="85.21875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="26.44140625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="58.33203125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12.88671875" customWidth="1" style="2" min="9" max="9"/>
+    <col width="12.109375" customWidth="1" style="2" min="10" max="10"/>
+    <col width="24.109375" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.21875" customWidth="1" style="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24.05" r="1" s="1">
+    <row r="1" ht="24.05" customHeight="1" s="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>module</t>
@@ -658,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29.95" r="2" s="1">
+    <row r="2" ht="29.95" customHeight="1" s="1">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -725,7 +714,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29.95" r="3" s="1">
+    <row r="3" ht="29.95" customHeight="1" s="1">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -771,9 +760,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L3" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L3" s="17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M3" s="18" t="inlineStr">
@@ -787,7 +776,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29.95" r="4" s="1">
+    <row r="4" ht="29.95" customHeight="1" s="1">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -833,9 +822,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L4" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L4" s="17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M4" s="18" t="inlineStr">
@@ -895,9 +884,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L5" s="22" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L5" s="19" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M5" s="20" t="inlineStr">
@@ -957,9 +946,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L6" s="22" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L6" s="19" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M6" s="20" t="inlineStr">
@@ -1019,9 +1008,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L7" s="22" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L7" s="19" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M7" s="20" t="inlineStr">
@@ -1091,7 +1080,7 @@
           <t>{"pageInfo":{"page":1,"pageSize":20,"pages":39,"total":767},"result":[{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606443696,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9f88bd62-8c96-4b9f-b1f3-e050589d45b9\",\"modifyTime\":1606443711,\"orderCustomName\":\"134\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"134\",\"patientName\":\"134\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":134,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-27T02:24:35Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"af4d4aa0-ada9-5f88-a8cd-a92f6ce85b6b","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"134","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606380770,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"74f66a88-0f44-4413-8459-94c6c5aabed5\",\"modifyTime\":1606380775,\"orderCustomName\":\"123\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"123\",\"patientName\":\"123\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":28,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":123,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-26T09:21:17Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"40a5b151-a4ac-56a6-8b22-1d032bdfe01f","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"123","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606289262,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"9a062fb0-9a90-492f-90dd-be598bb0a026\",\"modifyTime\":1606376738,\"orderCustomName\":\"024\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"024\",\"patientName\":\"ZH口内-AH002J21\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"eng\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"\",\"materialName\":\"Zirconium\",\"mesialConnector\":false,\"number\":36,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Antagonist\",\"reconstructionType\":\"SRET_Antagonist\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"---\",\"situScan\":false}],\"trayNo\":24,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-26T07:49:11Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"张慧","DoctorID":"66c85252-13f4-4062-8133-fc4f14e85732","HospitalID":"","Hospitals":"","Id":"715a7ba8-debc-5907-a79a-3d636c4dc57d","IssueAdmins":"","Lab":"3d技工所","LabAdmins":"1efec7ac-3929-4ae3-a06b-002386af4b19","LabMembers":"1efec7ac-3929-4ae3-a06b-002386af4b19","PatientName":"ZH口内-AH002J21","Status":"canceled"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606304302,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"90991549-0258-43f5-8cf6-4a01c4980d09\",\"modifyTime\":1606304306,\"orderCustomName\":\"199\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"199\",\"patientName\":\"199\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":14,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":199,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:44:20Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"32a01599-44f7-5ef7-894f-58fdc1c457d4","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"199","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606303760,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"51dd6b80-f511-4d53-91b5-766a77fb6d53\",\"modifyTime\":1606303771,\"orderCustomName\":\"198\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"198\",\"patientName\":\"198\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_NONE\",\"jawType\":\"SJT_LOWER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":35,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":true}],\"trayNo\":198,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:38:32Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"4cac1104-1b05-59f7-aa21-4ceb72c2d6f6","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"198","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606302075,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"6f5d731c-ddd4-41ef-b87b-b11b67d7d4f3\",\"modifyTime\":1606302081,\"orderCustomName\":\"196\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"196\",\"patientName\":\"196\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":25,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":196,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-25T11:22:22Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"6def287a-d542-518e-8dea-63508f9f126a","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"196","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":true,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605699553,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"34088640-b416-4402-98a4-db8fe0f1f937\",\"modifyTime\":1605699566,\"orderCustomName\":\"084\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"084\",\"patientName\":\"084\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":11,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":84,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-24T07:36:01Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"9684b6f4-0da2-5bd4-9059-3616403e582e","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"084","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1606113542,\"dentistry\":\"SDENTT_Ortho\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"e9348430-7b8d-455e-b002-e6c6feb9e590\",\"modifyTime\":1606113557,\"orderCustomName\":\"060\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"060\",\"patientName\":\"060\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[],\"trayNo\":60,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-23T06:48:09Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"orthodontic","Doctor":"Tom","DoctorID":"b0013b9d-bb81-5242-9636-4147d61d9443","HospitalID":"","Hospitals":"","Id":"bb98ce76-a1ed-59b6-895f-ff39a1eb5ee6","IssueAdmins":"","Lab":"蓝翔技工所","LabAdmins":"b0013b9d-bb81-5242-9636-4147d61d9443","LabMembers":"b0013b9d-bb81-5242-9636-4147d61d9443","PatientName":"060","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605786137,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"10dc4f5f-6592-4101-8555-9d35f28da8f1\",\"modifyTime\":1605786146,\"orderCustomName\":\"102\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"102\",\"patientName\":\"102\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":12,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false},{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_LOWER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":31,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":102,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-19T11:55:06Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"e3bd00c8-b028-5af4-b957-1870d7e82a06","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmins":"084a5d84-2500-5826-bea6-ef3acd599976,12dc011b-d353-5104-a9fe-e540baf6318f,b2774d22-f323-5ea3-8784-01dfacb1d3c2","LabMembers":"00d94fdf-d95f-5659-a4b0-75e5d80719b2,00e1d41b-a060-5ee3-9b8a-2306d391fa3e,03d2c445-baa1-5cde-b23b-7bb17bc4f605,05159b13-0cb5-5241-b802-66e4e0aa86b5,084a5d84-2500-5826-bea6-ef3acd599976,0ad870d0-6c7b-5eca-8982-e2cdf4f192db,0e591456-8a3f-5c7e-8c64-5398bba23f46,11cb0e56-eee7-5c2b-9cf5-efd8bce0665d,12dc011b-d353-5104-a9fe-e540baf6318f,14f130c3-5a7d-563b-8312-9f0b06040c04,15c6f822-13eb-5aa2-aa7b-f50c03afed30,166ffe7d-6d75-51b8-aaf3-650ce4923227,16acf4c1-d9e8-5e48-9c18-ea0982a95611,17810fdc-9b27-575f-90b9-5e6e1670f9fc,17a839f0-94d7-531c-a6e4-b8c0c52e3fbd,17c574c1-8e72-5de5-a13b-ddd8b1fc7815,186e7c6c-6851-5949-a426-0155abed870b,1b4bb7f0-f780-505c-bcd8-37db7a4a5ff0,1ba11710-a57b-56e1-8dcf-b06db2e3d503,1e39d21b-008c-5904-9392-a2b063c8fc4e,2055aecf-bf43-5b89-ba85-5347b91eb694,22aa443f-0b91-5ab3-9af4-1b74a2699d92,23825ffb-db0f-56d1-b39e-fdbc13747a99,292eed56-a2c6-55f1-880d-4f5fb5db5aad,2ad9f533-9d1a-5473-aed5-6e0848809df5,2b4b1b83-d898-5539-8f67-d5fcf1533e4f,2e157bd1-8ecf-50f8-8300-311929bc06e0,3080d104-665a-5918-b797-d2d319f4c899,3620e132-0281-50ed-a8a2-0cb8b50b54f1,365bfc85-70d0-57f3-8dba-b7e51e85aecc,38917cdb-89d4-5111-859c-350a9cf55f50,3e9000cf-aa0c-5861-98d1-f28855164fe2,401888fc-adda-5f09-ad82-d0fd9fd48765,41347da9-cb11-5ea8-9e7b-87a8b9902aa6,467943a4-8fa9-53e9-af02-0ba1df62ecae,48030802-6daf-5917-8f62-6e2e5b73bd9c,49c678de-8724-5ece-adde-7ea866d0c69b,4ab8a1bc-7ba8-5cb6-a352-8aa0ee6f6115,4f4d5a7e-0f6b-5086-9788-ab131206b998,53a5929d-4e1a-5c9e-986d-7f0c7123fce6,5483f311-dea6-595c-9216-fc56c4cca793,5a73aa3c-691c-53cf-89f9-c97d18105836,5eedf353-0d55-52d4-83af-7be24a73010b,6e26cc06-7477-5220-ad9c-9d6d949fa040,719e6c3d-3b24-5ccd-9526-0e139e148cca,73720a25-f9df-5051-9711-d27e7a2d448c,76131f7d-3696-5523-83ae-da0d4b096ce1,7b734f88-a0d2-5c09-a4ae-4b8cf6a975fa,7bda8766-0d2e-5bd7-b98f-64cf77232533,7c6f2b9c-b934-532d-b535-860843be73ef,7ea83279-09e4-5aff-b01f-17b9435378f1,83d53cfd-c533-590d-b57c-6bc1b5b4337e,850eb7ec-b79e-589c-839d-c9d5816ac3d2,857bed0f-bd8f-5d41-9292-a1ad21377f32,89dc0cfa-7560-546a-be68-6f509fc942aa,8a783d97-dbed-5910-9471-d66d9baf3fd2,8e896f0e-6ad3-5135-99b2-c9471a1af0df,94ba8bc2-8af0-5b05-a0de-23885629265b,981736a9-4c15-57a5-8c75-a3c4f50fae42,9818e4fa-0eea-5862-a4a0-16ca5cb817ec,981f9f2e-c558-58e4-9a14-142d4d263e49,98878cd8-85fd-5ece-8ef5-533e9741064f,9a84929e-aaa6-5a51-9151-da109cc5772a,9c266a52-bd81-5652-aeba-320c919afdda,9c683d37-46a9-5b17-9873-69372b4bf428,9c68a1cb-e1b1-56c0-8548-07af3fb7d83b,a46a904d-a2ca-549a-936d-58171c86c801,a5704b36-25bf-502b-92ec-b8c9aa395d82,a9c0f975-a756-5508-975a-bef52708c15a,af43cb83-a6b9-5a28-b473-aa78e3896569,b1294787-c4ce-5329-859e-ffd826ba03dd,b2774d22-f323-5ea3-8784-01dfacb1d3c2,b6178293-c5c4-5e1d-af7c-2be1e54fe252,bdfbcfd6-76a4-5804-8167-8e60a92af96b,bf0583cb-3e3e-523d-b716-892837106dd1,bfd243e9-204a-5792-a989-717e9abfbc62,c27254df-e9cc-5c1e-ba3b-5d5e0e39c8df,c426c3fc-738e-5659-899c-604b4daf6077,c510527a-7bd4-586b-9a82-7123d61cc52a,c7836ac3-07e7-574c-9410-87d9f4d0ddb2,cac20118-bbf7-57ad-b943-6ed2fc2fcf42,ccce18cc-68f3-5018-b775-95aab94b18b3,d02c9fcf-a7d2-55fc-8185-5a69bfb8b948,d0c3b751-183d-53d8-ace3-5730be5bc99e,d34d42d9-f18a-5257-9f04-ec6cc756dc64,d5d84ce1-6e55-56e0-a971-3165747908e6,d8a0acaa-bb7c-5c11-873e-dea55543451b,dac50d1a-61b5-561a-a39f-f20d661a89de,dadff6a0-33dc-56e2-bb9d-60a875b43942,db9eb71b-462b-5810-b8e6-e18113b19976,de9fb5cb-dbcd-5c4d-bea8-9fa2a6a1b378,e1039c46-54f9-5f4d-a1f7-eff55694dcd6,e53f8319-9c56-5503-b157-317250c34eaa,e5779f2e-2ff7-5d95-bf46-16f4980c439c,ea067f1b-1e52-55f2-a9cd-f06b29043ff2,ea136595-86c7-5b20-b83e-f2bd22baac30,eb8fb933-420b-5473-a83b-d4c765032123,f02a239d-0dba-516d-bda1-3ad25190ed6c,f0c854a8-fa4c-5427-bd20-353c77945f24,f883c6e2-faa6-50bb-8483-f28f579b1033,fc3a3db4-a881-5644-bd4d-2b367ed2b6ea,feaaa918-c288-5e73-baaa-ebaffac2ce08","PatientName":"102","Status":"waitAccept"},{"Content":"{\"bFreeScan\":false,\"bMovementMarkerScan\":false,\"bSave3PartyOrder\":false,\"bSaveDentalWings\":false,\"bSaveExoOrder\":true,\"baseInfo\":{\"createTime\":1605785622,\"dentistry\":\"SDENTT_Restoration\",\"doctorCode\":\"001\",\"doctorName\":\"Doctor001\",\"guid\":\"26109acf-4324-4ad3-85b5-20cec071f743\",\"modifyTime\":1605785630,\"orderCustomName\":\"101\",\"orderFormat\":\"SOFT_INTRAORAL_XML\",\"patientCode\":\"101\",\"patientName\":\"101\"},\"bridges\":[],\"dentalNotation\":\"SDNT_FDI\",\"lang\":\"en\",\"note\":\"Shade: none.\\nSpecial Requirements: none.\",\"occlusionType\":\"SOT_DigitalOcclusion\",\"operatorCode\":\"001\",\"operatorName\":\"Technician001\",\"scanObjectType\":\"SSFT_DIGITALIMPRESSIONSCAN\",\"shade\":\"A1\",\"tooths\":[{\"aestheticPlateScan\":true,\"implantType\":\"SIMT_CUSTOMABUTMENT\",\"jawType\":\"SJT_UPPER\",\"material\":\"PMMA_3ax\",\"materialName\":\"Acrylic/PMMA\",\"mesialConnector\":false,\"number\":12,\"partialSupportBar\":false,\"preparationType\":\"SPRT_Crown\",\"reconstructionType\":\"SRET_AnatomicCrown\",\"scanAbutmentScan\":false,\"separateGingivaScan\":false,\"separateWaxupScan\":true,\"shade\":\"\",\"situScan\":false}],\"trayNo\":101,\"version\":\"1.2\",\"waxBridges\":[]}","CreateOn":"2020-11-19T11:41:05Z","DeliveryNum":"","DeliverySupplior":"","DesignType":"repair","Doctor":"zmHospitalAdm","DoctorID":"7855e781-2d5b-549b-bb42-142303407660","HospitalID":"","Hospitals":"","Id":"bd36f0e5-7aea-555a-936f-07ce75c9a307","IssueAdmins":"7855e781-2d5b-549b-bb42-142303407660","Lab":"三维技工所","LabAdmi</t>
         </is>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>tongjingwei</t>
         </is>
@@ -1099,7 +1088,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1118,7 +1107,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData>
-    <row customHeight="1" ht="29.95" r="1" s="1">
+    <row r="1" ht="29.95" customHeight="1" s="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1172,7 +1161,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29.95" r="2" s="1">
+    <row r="2" ht="29.95" customHeight="1" s="1">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1221,7 +1210,7 @@
       <c r="L2" s="6" t="n"/>
       <c r="M2" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="29.95" r="3" s="1">
+    <row r="3" ht="29.95" customHeight="1" s="1">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>齿科云平台</t>
@@ -1451,7 +1440,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1469,6 +1458,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.55"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>